--- a/config/default/forms/contact/patient_contact-edit.xlsx
+++ b/config/default/forms/contact/patient_contact-edit.xlsx
@@ -2475,13 +2475,13 @@
     <t xml:space="preserve">passive_referral</t>
   </si>
   <si>
-    <t xml:space="preserve">Passive Referral</t>
+    <t xml:space="preserve">Client Referral</t>
   </si>
   <si>
     <t xml:space="preserve">contract_referral</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact Referral</t>
+    <t xml:space="preserve">Contract Referral</t>
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
@@ -3828,29 +3828,29 @@
   <dimension ref="A1:N65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
-      <selection pane="bottomRight" activeCell="G54" activeCellId="0" sqref="G54:H54"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.1581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.9132653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.3775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.1887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="100.071428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="40.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.4336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.2091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.719387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="103.673469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.9183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8010204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="41.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="19.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5975,17 +5975,17 @@
   <dimension ref="A1:Z65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A600" activeCellId="1" sqref="G54:H54 A600"/>
+      <selection pane="bottomLeft" activeCell="C624" activeCellId="0" sqref="C624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.7142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27209,14 +27209,14 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="1" sqref="G54:H54 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="19.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="C2" s="30" t="n">
         <f aca="true">NOW()</f>
-        <v>44075.5067942617</v>
+        <v>44104.4494791946</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>829</v>

--- a/config/default/forms/contact/patient_contact-edit.xlsx
+++ b/config/default/forms/contact/patient_contact-edit.xlsx
@@ -2904,223 +2904,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -3418,29 +3202,29 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
-      <selection pane="bottomRight" activeCell="C47" activeCellId="0" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="100.795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="74.515306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="62.6377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="142.551020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.8775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="56.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="26.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.484693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.2142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="64.8877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="147.678571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.5867346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="58.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="27.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4528,7 +4312,7 @@
         <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5226,753 +5010,753 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsText" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="1"/>
+    <cfRule type="containsText" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="3"/>
+    <cfRule type="containsText" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($I50 = "", $A50 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($E50 = "", $A50 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $E50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E54">
-    <cfRule type="containsText" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E54">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E54">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E54">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E54">
-    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E54">
-    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($I63 = "", $A63 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($E63 = "", $A63 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
+    <cfRule type="containsText" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($C17 = "", $A17 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="21"/>
+    <cfRule type="containsText" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="28"/>
+    <cfRule type="containsText" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>COUNTIF($B$2:$B$1068,B55)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="34"/>
+    <cfRule type="containsText" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="40"/>
+    <cfRule type="containsText" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="41"/>
+    <cfRule type="containsText" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="41"/>
+    <cfRule type="containsText" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="41"/>
+    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="42"/>
+    <cfRule type="containsText" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="43"/>
+    <cfRule type="containsText" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" priority="156" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="cellIs" priority="156" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="43"/>
+    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="162" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="cellIs" priority="162" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="44"/>
+    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="165" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="cellIs" priority="165" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="44"/>
+    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$922, "begin group") = COUNTIF($A$1:$A$922, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$913, "begin group") = COUNTIF($A$1:$A$922, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="containsText" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="21"/>
+    <cfRule type="containsText" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A7="begin group", NOT($B7 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A7="end group", $B7 = "", $C7 = "", $D7 = "", $E7 = "", $F7 = "", $G7 = "", $H7 = "", $I7 = "", $J7 = "", $K7 = "", $L7 = "", $M7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="cellIs" priority="173" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="cellIs" priority="173" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I8">
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($I7 = "", $A7 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT($A7 = "end group"), NOT($A7 = "end repeat"), NOT($A7 = "")), $C7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(AND(NOT(#ref! = "end group"), NOT(#ref! = "end repeat"), NOT(#ref! = "")), #ref! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="cellIs" priority="177" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="cellIs" priority="177" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND(NOT(#ref! = ""), #ref! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>AND($A7="begin repeat", NOT($B7 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>AND($A7="end repeat", $B7 = "", $C7 = "", $D7 = "", $E7 = "", $F7 = "", $G7 = "", $H7 = "", $I7 = "", $J7 = "", $K7 = "", $L7 = "", $M7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>COUNTIF($B$2:$B$991,#ref!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6015,10 +5799,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="26.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="27.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27164,7 +26948,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>COUNTIF($B$2:$B$992,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27193,9 +26977,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="26.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="26.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="27.719387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27230,7 +27014,7 @@
       </c>
       <c r="C2" s="35" t="n">
         <f aca="true">NOW()</f>
-        <v>44293.6269177261</v>
+        <v>44294.4161260138</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>842</v>

--- a/config/default/forms/contact/patient_contact-edit.xlsx
+++ b/config/default/forms/contact/patient_contact-edit.xlsx
@@ -408,7 +408,7 @@
     <t xml:space="preserve">n_relationship_details</t>
   </si>
   <si>
-    <t xml:space="preserve">**&lt;span style="color:blue"&gt;Relationship to Patient&lt;/span&gt;**</t>
+    <t xml:space="preserve">**&lt;span style="color:blue"&gt;Relationship to Client&lt;/span&gt;**</t>
   </si>
   <si>
     <t xml:space="preserve">select_one relationship</t>
@@ -417,7 +417,7 @@
     <t xml:space="preserve">contact_relationship</t>
   </si>
   <si>
-    <t xml:space="preserve">Relationship to patient</t>
+    <t xml:space="preserve">Relationship to client</t>
   </si>
   <si>
     <t xml:space="preserve">relationship_delimiter</t>
@@ -2904,115 +2904,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -3206,25 +3098,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.484693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.2142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="64.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="147.678571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.5867346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="58.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="108.265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.9132653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="152.989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.7091836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.7091836734694"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="61.015306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="28.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5354,409 +5246,409 @@
     <cfRule type="containsText" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND($I63 = "", $A63 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $C63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(AND(NOT($A63 = "end group"), NOT($A63 = "end repeat"), NOT($A63 = "")), $B63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(NOT($G63 = ""), $H63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($E63 = "", $A63 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $E63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($C17 = "", $A17 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A17="end group", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="containsText" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="expression" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>COUNTIF($B$2:$B$1068,B55)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="11"/>
+    <cfRule type="containsText" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="expression" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="expression" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="16"/>
+    <cfRule type="containsText" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
+    <cfRule type="containsText" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="expression" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
+    <cfRule type="containsText" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="17"/>
+    <cfRule type="containsText" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="18"/>
+    <cfRule type="containsText" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="154" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="19"/>
+    <cfRule type="containsText" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" priority="156" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="cellIs" priority="156" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="expression" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="19"/>
+    <cfRule type="containsText" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="162" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="cellIs" priority="162" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="20"/>
+    <cfRule type="containsText" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="cellIs" priority="164" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="cellIs" priority="165" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="cellIs" priority="165" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="20"/>
+    <cfRule type="containsText" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="cellIs" priority="167" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="expression" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$922, "begin group") = COUNTIF($A$1:$A$922, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="expression" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$913, "begin group") = COUNTIF($A$1:$A$922, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="containsText" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="7"/>
+    <cfRule type="containsText" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A7="begin group", NOT($B7 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($A7="end group", $B7 = "", $C7 = "", $D7 = "", $E7 = "", $F7 = "", $G7 = "", $H7 = "", $I7 = "", $J7 = "", $K7 = "", $L7 = "", $M7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="cellIs" priority="173" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="173" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I8">
-    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND($I7 = "", $A7 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(AND(NOT($A7 = "end group"), NOT($A7 = "end repeat"), NOT($A7 = "")), $C7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(AND(NOT(#ref! = "end group"), NOT(#ref! = "end repeat"), NOT(#ref! = "")), #ref! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="cellIs" priority="177" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="177" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H8">
-    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(NOT(#ref! = ""), #ref! = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>AND($A7="begin repeat", NOT($B7 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N8">
-    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>AND($A7="end repeat", $B7 = "", $C7 = "", $D7 = "", $E7 = "", $F7 = "", $G7 = "", $H7 = "", $I7 = "", $J7 = "", $K7 = "", $L7 = "", $M7 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="expression" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>COUNTIF($B$2:$B$991,#ref!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5799,10 +5691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.219387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="80.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="28.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26977,9 +26869,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="27.719387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="28.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27014,7 +26906,7 @@
       </c>
       <c r="C2" s="35" t="n">
         <f aca="true">NOW()</f>
-        <v>44294.4161260138</v>
+        <v>44307.9894844685</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>842</v>
